--- a/testData/pcData/orderBusinessAction.xlsx
+++ b/testData/pcData/orderBusinessAction.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9825" windowWidth="18945" xWindow="360" yWindow="1440"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="推荐集合页" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>序号</t>
   </si>
@@ -55,7 +55,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>2020-06-22 10:14:37</t>
+    <t>2020-06-27 17:59:53</t>
   </si>
   <si>
     <t>pass</t>
@@ -70,7 +70,7 @@
     <t>https://u.jd.com/4hSnP0</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:07</t>
+    <t>2020-06-27 17:50:12</t>
   </si>
   <si>
     <t>最大化窗口</t>
@@ -79,7 +79,7 @@
     <t>maximize_browser</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:12</t>
+    <t>2020-06-27 17:50:17</t>
   </si>
   <si>
     <t>等待主页加载</t>
@@ -88,7 +88,7 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:15</t>
+    <t>2020-06-27 17:50:20</t>
   </si>
   <si>
     <t>设置登录cookies</t>
@@ -100,7 +100,7 @@
     <t>选择sku并点击</t>
   </si>
   <si>
-    <t>click</t>
+    <t>click_pc</t>
   </si>
   <si>
     <t>xpath</t>
@@ -109,7 +109,7 @@
     <t>//ul/li[2]</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:16</t>
+    <t>faild</t>
   </si>
   <si>
     <t>点击立即购买</t>
@@ -118,31 +118,34 @@
     <t>//div[@id='buyBtn2']</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:23</t>
+    <t>2020-06-27 17:50:21</t>
   </si>
   <si>
     <t>等待2秒</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:25</t>
+    <t>2020-06-27 17:50:23</t>
   </si>
   <si>
     <t>判断选择并点击</t>
   </si>
   <si>
-    <t>checkpopClick</t>
+    <t>checkpopclick_pc</t>
   </si>
   <si>
     <t>//*[@id="popupConfirm"]</t>
   </si>
   <si>
+    <t>2020-06-27 17:50:33</t>
+  </si>
+  <si>
     <t>点击蒙层直接访问</t>
   </si>
   <si>
     <t>//*[@id="pcprompt-viewpc"]</t>
   </si>
   <si>
-    <t>2020-06-19 19:23:29</t>
+    <t>2020-06-27 17:50:34</t>
   </si>
   <si>
     <t>点击在线支付</t>
@@ -151,13 +154,10 @@
     <t>//a[contains(.,'在线支付')]</t>
   </si>
   <si>
-    <t>2020-06-19 19:23:31</t>
-  </si>
-  <si>
     <t>等待加载时间</t>
   </si>
   <si>
-    <t>2020-06-19 19:23:33</t>
+    <t>2020-06-27 17:50:36</t>
   </si>
   <si>
     <t>点击选择列表</t>
@@ -166,7 +166,7 @@
     <t>//*[@id="m_common_header_jdkey"]</t>
   </si>
   <si>
-    <t>2020-06-19 19:23:34</t>
+    <t>2020-06-27 17:50:37</t>
   </si>
   <si>
     <t>点击选择我的京东</t>
@@ -175,10 +175,7 @@
     <t>//*[@id="m_common_header_shortcut_h_home"]/a</t>
   </si>
   <si>
-    <t>2020-06-19 19:23:35</t>
-  </si>
-  <si>
-    <t>2020-06-19 19:23:42</t>
+    <t>2020-06-27 17:50:38</t>
   </si>
   <si>
     <t>点击待付款选项</t>
@@ -187,9 +184,6 @@
     <t>//div[@data-type='waitPay']</t>
   </si>
   <si>
-    <t>2020-06-19 19:23:45</t>
-  </si>
-  <si>
     <t>获取订单号</t>
   </si>
   <si>
@@ -202,43 +196,63 @@
     <t>data-orderid</t>
   </si>
   <si>
-    <t>2020-06-22 10:14:42</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:14:46</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:14:49</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:14:50</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:14:57</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:14:59</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:15:04</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:15:05</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:15:07</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:15:08</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:15:10</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:15:16</t>
-  </si>
-  <si>
     <t>2020-06-22 10:15:18</t>
+  </si>
+  <si>
+    <t>2020-06-27 17:59:58</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:02</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:06</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:07</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:12</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:14</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:15</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "D:\John\work\airtestLearning\newwebtest\webtest\testScripts\ExecuteTest.py", line 57, in executeExcel
+    returnValue = eval(expressionStr)
+  File "&lt;string&gt;", line 1, in &lt;module&gt;
+NameError: name 'checkpopclick_pc' is not defined
+</t>
+  </si>
+  <si>
+    <t>D:\John\work\airtestLearning\newwebtest\webtest\exceptionpictures\2020-6-27\18-00-15-267003.png</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:18</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:19</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:21</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:22</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:23</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:31</t>
+  </si>
+  <si>
+    <t>2020-06-27 18:00:33</t>
   </si>
 </sst>
 </file>
@@ -246,7 +260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -272,8 +286,19 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="3"/>
       <color rgb="FF008B00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FFFF3030"/>
       <sz val="11"/>
     </font>
     <font>
@@ -325,7 +350,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -335,8 +360,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -616,7 +646,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -626,6 +656,7 @@
     <col customWidth="1" max="5" min="5" style="4" width="44.125"/>
     <col customWidth="1" max="6" min="6" style="4" width="21.75"/>
     <col customWidth="1" max="7" min="7" style="4" width="20"/>
+    <col customWidth="1" max="9" min="9" style="4" width="26.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -678,7 +709,7 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5" t="s"/>
@@ -700,9 +731,9 @@
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="5" t="s"/>
@@ -722,9 +753,9 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="5" t="s"/>
@@ -746,9 +777,9 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="5" t="s"/>
@@ -768,9 +799,9 @@
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="5" t="s"/>
@@ -794,12 +825,12 @@
       </c>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s"/>
       <c r="J7" s="5" t="s"/>
     </row>
     <row r="8" spans="1:10">
@@ -820,12 +851,12 @@
       </c>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="5" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7" t="s"/>
       <c r="J8" s="5" t="s"/>
     </row>
     <row r="9" spans="1:10">
@@ -846,7 +877,7 @@
       <c r="G9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="5" t="s"/>
@@ -870,20 +901,24 @@
       </c>
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="5" t="s"/>
-      <c r="J10" s="5" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -892,13 +927,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="5" t="s"/>
@@ -909,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>28</v>
@@ -918,13 +953,13 @@
         <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="5" t="s"/>
@@ -946,9 +981,9 @@
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="5" t="s"/>
@@ -972,9 +1007,9 @@
       </c>
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="5" t="s"/>
@@ -998,9 +1033,9 @@
       </c>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="5" t="s"/>
@@ -1011,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>28</v>
@@ -1020,13 +1055,13 @@
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s"/>
@@ -1037,7 +1072,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>28</v>
@@ -1046,13 +1081,13 @@
         <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="5" t="s"/>
@@ -1063,24 +1098,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="5" t="s"/>

--- a/testData/pcData/orderBusinessAction.xlsx
+++ b/testData/pcData/orderBusinessAction.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xueruiheng\autoWork\work\smartOrder\SmartOrder\testData\pcData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="推荐集合页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="推荐集合页" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -70,27 +75,18 @@
     <t>https://u.jd.com/4hSnP0</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:12</t>
-  </si>
-  <si>
     <t>最大化窗口</t>
   </si>
   <si>
     <t>maximize_browser</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:17</t>
-  </si>
-  <si>
     <t>等待主页加载</t>
   </si>
   <si>
     <t>sleep</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:20</t>
-  </si>
-  <si>
     <t>设置登录cookies</t>
   </si>
   <si>
@@ -118,15 +114,9 @@
     <t>//div[@id='buyBtn2']</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:21</t>
-  </si>
-  <si>
     <t>等待2秒</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:23</t>
-  </si>
-  <si>
     <t>判断选择并点击</t>
   </si>
   <si>
@@ -136,18 +126,12 @@
     <t>//*[@id="popupConfirm"]</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:33</t>
-  </si>
-  <si>
     <t>点击蒙层直接访问</t>
   </si>
   <si>
     <t>//*[@id="pcprompt-viewpc"]</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:34</t>
-  </si>
-  <si>
     <t>点击在线支付</t>
   </si>
   <si>
@@ -157,48 +141,24 @@
     <t>等待加载时间</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:36</t>
-  </si>
-  <si>
     <t>点击选择列表</t>
   </si>
   <si>
     <t>//*[@id="m_common_header_jdkey"]</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:37</t>
-  </si>
-  <si>
     <t>点击选择我的京东</t>
   </si>
   <si>
     <t>//*[@id="m_common_header_shortcut_h_home"]/a</t>
   </si>
   <si>
-    <t>2020-06-27 17:50:38</t>
-  </si>
-  <si>
     <t>点击待付款选项</t>
   </si>
   <si>
     <t>//div[@data-type='waitPay']</t>
   </si>
   <si>
-    <t>获取订单号</t>
-  </si>
-  <si>
-    <t>getAttr</t>
-  </si>
-  <si>
-    <t>//div[@class='my_order']/div[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>data-orderid</t>
-  </si>
-  <si>
-    <t>2020-06-22 10:15:18</t>
-  </si>
-  <si>
     <t>2020-06-27 17:59:58</t>
   </si>
   <si>
@@ -212,9 +172,6 @@
   </si>
   <si>
     <t>2020-06-27 18:00:12</t>
-  </si>
-  <si>
-    <t>2020-06-27 18:00:14</t>
   </si>
   <si>
     <t>2020-06-27 18:00:15</t>
@@ -258,66 +215,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF008B00"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF3030"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FFFF3030"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <color rgb="FF008B00"/>
-    </font>
-    <font>
-      <color rgb="FFFF3030"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.3499862666707358"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,32 +291,38 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -638,28 +588,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="14.5"/>
-    <col customWidth="1" max="3" min="3" style="4" width="20"/>
-    <col customWidth="1" max="5" min="5" style="4" width="44.125"/>
-    <col customWidth="1" max="6" min="6" style="4" width="21.75"/>
-    <col customWidth="1" max="7" min="7" style="4" width="20"/>
-    <col customWidth="1" max="9" min="9" style="4" width="26.125"/>
+    <col min="2" max="2" width="14.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -691,8 +637,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -701,22 +647,22 @@
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s"/>
-      <c r="J2" s="5" t="s"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="n">
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -725,407 +671,380 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s"/>
-      <c r="J3" s="5" t="s"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s"/>
-      <c r="J4" s="5" t="s"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s"/>
-      <c r="J5" s="5" t="s"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s"/>
-      <c r="J6" s="5" t="s"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7" t="s"/>
-      <c r="J7" s="5" t="s"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="7" t="s"/>
-      <c r="J8" s="5" t="s"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s"/>
-      <c r="J9" s="5" t="s"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="5" t="s"/>
-      <c r="J11" s="5" t="s"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5" t="s"/>
-      <c r="J12" s="5" t="s"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5" t="s"/>
-      <c r="J13" s="5" t="s"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="5" t="s"/>
-      <c r="J14" s="5" t="s"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5" t="s"/>
-      <c r="J15" s="5" t="s"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s"/>
-      <c r="J16" s="5" t="s"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5" t="s"/>
-      <c r="J17" s="5" t="s"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="5" t="s"/>
-      <c r="J18" s="5" t="s"/>
+      <c r="H17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>